--- a/산출물/MS-TODO-테이블명세서-정자윤.xlsx
+++ b/산출물/MS-TODO-테이블명세서-정자윤.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Git\Todo\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6E2A9-B7DE-456D-A50A-4E43E97A89D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF66E30D-5A15-47D2-821B-71518C32AA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{CB32077B-2C98-4E97-A1CB-9161A5515E84}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{CB32077B-2C98-4E97-A1CB-9161A5515E84}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블목록" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="76">
   <si>
     <t>USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>할 일 정보 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,6 +312,34 @@
   </si>
   <si>
     <t>PasswordEncoder 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPTODO_TOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWTODO_TOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 할 일 상단 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한 할 일 상단 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 할 일 상단 정렬옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한 할 일 상단 옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 일 정보 필터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,8 +745,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -753,7 +777,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -768,7 +792,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -783,17 +807,17 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -821,8 +845,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -879,13 +903,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -902,7 +926,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -910,13 +934,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -931,7 +955,7 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -939,13 +963,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -960,34 +984,66 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,13 +1113,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -1075,7 +1131,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1086,10 +1142,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1106,7 +1162,7 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1117,10 +1173,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1135,7 +1191,7 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1146,10 +1202,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1164,7 +1220,7 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1175,13 +1231,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1200,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1225,13 +1281,13 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1250,13 +1306,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1344,16 +1400,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1365,7 +1421,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1373,13 +1429,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1396,7 +1452,7 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1404,16 +1460,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -1425,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1433,16 +1489,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
@@ -1454,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1462,16 +1518,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1483,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1491,16 +1547,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1512,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
